--- a/public/assets/preventable.xlsx
+++ b/public/assets/preventable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255F17AA-CE7D-4D59-BAEC-F2E073A28002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A261AD84-A8FF-4BEB-828B-C97ECEB6EE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-2604" windowWidth="23256" windowHeight="12456" xr2:uid="{D8DCE2AC-C504-4764-80CF-FE6F19AA4D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8DCE2AC-C504-4764-80CF-FE6F19AA4D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="30">
   <si>
     <t>Region</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>No Data</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,11 +187,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,16 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98418893-E148-46A1-B594-9AF4793A942A}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
@@ -542,7 +545,7 @@
     <col min="11" max="16384" width="22.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1812,6 +1815,506 @@
       <c r="M31" s="3">
         <v>2024</v>
       </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>38941</v>
+      </c>
+      <c r="J32" s="1">
+        <v>15.022684253222369</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6.5252216128390259</v>
+      </c>
+      <c r="L32" s="1">
+        <v>29.186002393252199</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
+        <v>6</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1092436</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>10.75164769000849</v>
+      </c>
+      <c r="L33" s="1">
+        <v>12.916214240384519</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>306503</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2.667022269635952</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>93009</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4.1505659296645101</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>21.791596070975231</v>
+      </c>
+      <c r="M35" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
+      <c r="I36" s="3">
+        <v>93009</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>16.935087808430289</v>
+      </c>
+      <c r="L36" s="1">
+        <v>25.679874682211551</v>
+      </c>
+      <c r="M36" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>34766</v>
+      </c>
+      <c r="J37" s="1">
+        <v>12.08386200229593</v>
+      </c>
+      <c r="K37" s="1">
+        <v>28.963679545849509</v>
+      </c>
+      <c r="L37" s="1">
+        <v>9.9102134659980567</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>81337</v>
+      </c>
+      <c r="J38" s="1">
+        <v>17.817530668424659</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>11.49029070435482</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6</v>
+      </c>
+      <c r="H39" s="3">
+        <v>8</v>
+      </c>
+      <c r="I39" s="3">
+        <v>240931</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1.8307708643801559</v>
+      </c>
+      <c r="K39" s="1">
+        <v>7.1052164130499138</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3">
+        <v>174110</v>
+      </c>
+      <c r="J40" s="1">
+        <v>16.313054032097561</v>
+      </c>
+      <c r="K40" s="1">
+        <v>19.653959290098989</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7</v>
+      </c>
+      <c r="I41" s="3">
+        <v>82755</v>
+      </c>
+      <c r="J41" s="1">
+        <v>12.08386200229593</v>
+      </c>
+      <c r="K41" s="1">
+        <v>29.186002393252199</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>336747</v>
+      </c>
+      <c r="J42" s="1">
+        <v>17.817530668424659</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7.1052164130499138</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>336747</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.8307708643801559</v>
+      </c>
+      <c r="K43" s="1">
+        <v>19.653959290098989</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
